--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H2">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I2">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J2">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1051366666666667</v>
+        <v>0.06577666666666666</v>
       </c>
       <c r="N2">
-        <v>0.31541</v>
+        <v>0.19733</v>
       </c>
       <c r="O2">
-        <v>0.05266403705467093</v>
+        <v>0.03064547051388741</v>
       </c>
       <c r="P2">
-        <v>0.06261614837928776</v>
+        <v>0.03737271676147313</v>
       </c>
       <c r="Q2">
-        <v>1.106209666828889</v>
+        <v>0.4267868149377778</v>
       </c>
       <c r="R2">
-        <v>9.955887001459999</v>
+        <v>3.841081334440001</v>
       </c>
       <c r="S2">
-        <v>0.02518465920431343</v>
+        <v>0.01055492653287377</v>
       </c>
       <c r="T2">
-        <v>0.03114242931988334</v>
+        <v>0.01352241783551344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H3">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I3">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J3">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9215286666666668</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N3">
         <v>2.764586</v>
       </c>
       <c r="O3">
-        <v>0.4616031817153055</v>
+        <v>0.4293419082050673</v>
       </c>
       <c r="P3">
-        <v>0.5488339849189997</v>
+        <v>0.5235903792668827</v>
       </c>
       <c r="Q3">
-        <v>9.695988579879558</v>
+        <v>5.979267488783112</v>
       </c>
       <c r="R3">
-        <v>87.26389721891601</v>
+        <v>53.813407399048</v>
       </c>
       <c r="S3">
-        <v>0.2207449232776895</v>
+        <v>0.1478741302580011</v>
       </c>
       <c r="T3">
-        <v>0.2729651060642942</v>
+        <v>0.189448573629001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H4">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I4">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J4">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9518975000000001</v>
+        <v>1.1590695</v>
       </c>
       <c r="N4">
-        <v>1.903795</v>
+        <v>2.318139</v>
       </c>
       <c r="O4">
-        <v>0.4768152424994321</v>
+        <v>0.5400126212810453</v>
       </c>
       <c r="P4">
-        <v>0.3779471488023404</v>
+        <v>0.4390369039716442</v>
       </c>
       <c r="Q4">
-        <v>10.01551836971167</v>
+        <v>7.520532816042001</v>
       </c>
       <c r="R4">
-        <v>60.09311021827001</v>
+        <v>45.123196896252</v>
       </c>
       <c r="S4">
-        <v>0.2280195377597852</v>
+        <v>0.1859913862919181</v>
       </c>
       <c r="T4">
-        <v>0.1879737523447174</v>
+        <v>0.1588549341651005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.52163533333333</v>
+        <v>8.509821666666667</v>
       </c>
       <c r="H5">
-        <v>31.564906</v>
+        <v>25.529465</v>
       </c>
       <c r="I5">
-        <v>0.4782136086181363</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J5">
-        <v>0.4973545982298819</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01780266666666667</v>
+        <v>0.06577666666666666</v>
       </c>
       <c r="N5">
-        <v>0.053408</v>
+        <v>0.19733</v>
       </c>
       <c r="O5">
-        <v>0.008917538730591501</v>
+        <v>0.03064547051388741</v>
       </c>
       <c r="P5">
-        <v>0.01060271789937225</v>
+        <v>0.03737271676147313</v>
       </c>
       <c r="Q5">
-        <v>0.1873131666275556</v>
+        <v>0.5597477031611111</v>
       </c>
       <c r="R5">
-        <v>1.685818499648</v>
+        <v>5.03772932845</v>
       </c>
       <c r="S5">
-        <v>0.004264488376348156</v>
+        <v>0.01384320151659726</v>
       </c>
       <c r="T5">
-        <v>0.005273310500987064</v>
+        <v>0.01773518313989389</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>25.529465</v>
       </c>
       <c r="I6">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J6">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1051366666666667</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N6">
-        <v>0.31541</v>
+        <v>2.764586</v>
       </c>
       <c r="O6">
-        <v>0.05266403705467093</v>
+        <v>0.4293419082050673</v>
       </c>
       <c r="P6">
-        <v>0.06261614837928776</v>
+        <v>0.5235903792668827</v>
       </c>
       <c r="Q6">
-        <v>0.8946942839611111</v>
+        <v>7.842044614054445</v>
       </c>
       <c r="R6">
-        <v>8.052248555649999</v>
+        <v>70.57840152649</v>
       </c>
       <c r="S6">
-        <v>0.02036916807841745</v>
+        <v>0.1939427411339561</v>
       </c>
       <c r="T6">
-        <v>0.02518776895254925</v>
+        <v>0.2484692596968869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>25.529465</v>
       </c>
       <c r="I7">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J7">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9215286666666668</v>
+        <v>1.1590695</v>
       </c>
       <c r="N7">
-        <v>2.764586</v>
+        <v>2.318139</v>
       </c>
       <c r="O7">
-        <v>0.4616031817153055</v>
+        <v>0.5400126212810453</v>
       </c>
       <c r="P7">
-        <v>0.5488339849189997</v>
+        <v>0.4390369039716442</v>
       </c>
       <c r="Q7">
-        <v>7.842044614054446</v>
+        <v>9.8634747442725</v>
       </c>
       <c r="R7">
-        <v>70.57840152649001</v>
+        <v>59.180848465635</v>
       </c>
       <c r="S7">
-        <v>0.1785368786697943</v>
+        <v>0.243935022453377</v>
       </c>
       <c r="T7">
-        <v>0.2207721803920369</v>
+        <v>0.2083444975864313</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>8.509821666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H8">
-        <v>25.529465</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I8">
-        <v>0.3867756673737729</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J8">
-        <v>0.4022567597096229</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.9518975000000001</v>
+        <v>0.06577666666666666</v>
       </c>
       <c r="N8">
-        <v>1.903795</v>
+        <v>0.19733</v>
       </c>
       <c r="O8">
-        <v>0.4768152424994321</v>
+        <v>0.03064547051388741</v>
       </c>
       <c r="P8">
-        <v>0.3779471488023404</v>
+        <v>0.03737271676147313</v>
       </c>
       <c r="Q8">
-        <v>8.100477969945834</v>
+        <v>0.02181969897333333</v>
       </c>
       <c r="R8">
-        <v>48.60286781967501</v>
+        <v>0.19637729076</v>
       </c>
       <c r="S8">
-        <v>0.1844205336317052</v>
+        <v>0.0005396261355134204</v>
       </c>
       <c r="T8">
-        <v>0.1520317954187201</v>
+        <v>0.0006913406793168005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.331724</v>
+      </c>
+      <c r="H9">
+        <v>0.9951719999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.01760867516355742</v>
+      </c>
+      <c r="J9">
+        <v>0.0184985395557192</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8.509821666666667</v>
-      </c>
-      <c r="H9">
-        <v>25.529465</v>
-      </c>
-      <c r="I9">
-        <v>0.3867756673737729</v>
-      </c>
-      <c r="J9">
-        <v>0.4022567597096229</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01780266666666667</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N9">
-        <v>0.053408</v>
+        <v>2.764586</v>
       </c>
       <c r="O9">
-        <v>0.008917538730591501</v>
+        <v>0.4293419082050673</v>
       </c>
       <c r="P9">
-        <v>0.01060271789937225</v>
+        <v>0.5235903792668827</v>
       </c>
       <c r="Q9">
-        <v>0.1514975185244445</v>
+        <v>0.3056931754213333</v>
       </c>
       <c r="R9">
-        <v>1.36347766672</v>
+        <v>2.751238578792</v>
       </c>
       <c r="S9">
-        <v>0.003449086993855995</v>
+        <v>0.007560142195684919</v>
       </c>
       <c r="T9">
-        <v>0.004265014946316701</v>
+        <v>0.009685657341862447</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H10">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I10">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J10">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1051366666666667</v>
+        <v>1.1590695</v>
       </c>
       <c r="N10">
-        <v>0.31541</v>
+        <v>2.318139</v>
       </c>
       <c r="O10">
-        <v>0.05266403705467093</v>
+        <v>0.5400126212810453</v>
       </c>
       <c r="P10">
-        <v>0.06261614837928776</v>
+        <v>0.4390369039716442</v>
       </c>
       <c r="Q10">
-        <v>0.01208016795444444</v>
+        <v>0.3844911708179999</v>
       </c>
       <c r="R10">
-        <v>0.10872151159</v>
+        <v>2.306947024908</v>
       </c>
       <c r="S10">
-        <v>0.0002750246379022208</v>
+        <v>0.00950890683235908</v>
       </c>
       <c r="T10">
-        <v>0.000340085417778037</v>
+        <v>0.008121541534539952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1148996666666667</v>
+        <v>2.7186785</v>
       </c>
       <c r="H11">
-        <v>0.344699</v>
+        <v>5.437357</v>
       </c>
       <c r="I11">
-        <v>0.005222247538993557</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J11">
-        <v>0.005431273346901209</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.9215286666666668</v>
+        <v>0.06577666666666666</v>
       </c>
       <c r="N11">
-        <v>2.764586</v>
+        <v>0.19733</v>
       </c>
       <c r="O11">
-        <v>0.4616031817153055</v>
+        <v>0.03064547051388741</v>
       </c>
       <c r="P11">
-        <v>0.5488339849189997</v>
+        <v>0.03737271676147313</v>
       </c>
       <c r="Q11">
-        <v>0.1058833366237778</v>
+        <v>0.1788256094683333</v>
       </c>
       <c r="R11">
-        <v>0.9529500296140001</v>
+        <v>1.07295365681</v>
       </c>
       <c r="S11">
-        <v>0.002410606079704349</v>
+        <v>0.004422562047540796</v>
       </c>
       <c r="T11">
-        <v>0.002980867394164143</v>
+        <v>0.003777302900471437</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1148996666666667</v>
+        <v>2.7186785</v>
       </c>
       <c r="H12">
-        <v>0.344699</v>
+        <v>5.437357</v>
       </c>
       <c r="I12">
-        <v>0.005222247538993557</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J12">
-        <v>0.005431273346901209</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9518975000000001</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N12">
-        <v>1.903795</v>
+        <v>2.764586</v>
       </c>
       <c r="O12">
-        <v>0.4768152424994321</v>
+        <v>0.4293419082050673</v>
       </c>
       <c r="P12">
-        <v>0.3779471488023404</v>
+        <v>0.5235903792668827</v>
       </c>
       <c r="Q12">
-        <v>0.1093727054508333</v>
+        <v>2.505340173200334</v>
       </c>
       <c r="R12">
-        <v>0.656236232705</v>
+        <v>15.032041039202</v>
       </c>
       <c r="S12">
-        <v>0.002490047226697276</v>
+        <v>0.06195993067836932</v>
       </c>
       <c r="T12">
-        <v>0.002052734275827456</v>
+        <v>0.05291987389855941</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1148996666666667</v>
+        <v>2.7186785</v>
       </c>
       <c r="H13">
-        <v>0.344699</v>
+        <v>5.437357</v>
       </c>
       <c r="I13">
-        <v>0.005222247538993557</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J13">
-        <v>0.005431273346901209</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01780266666666667</v>
+        <v>1.1590695</v>
       </c>
       <c r="N13">
-        <v>0.053408</v>
+        <v>2.318139</v>
       </c>
       <c r="O13">
-        <v>0.008917538730591501</v>
+        <v>0.5400126212810453</v>
       </c>
       <c r="P13">
-        <v>0.01060271789937225</v>
+        <v>0.4390369039716442</v>
       </c>
       <c r="Q13">
-        <v>0.002045520465777778</v>
+        <v>3.15113732965575</v>
       </c>
       <c r="R13">
-        <v>0.018409684192</v>
+        <v>12.604549318623</v>
       </c>
       <c r="S13">
-        <v>4.656959468971119E-05</v>
+        <v>0.07793123368715481</v>
       </c>
       <c r="T13">
-        <v>5.758625913157289E-05</v>
+        <v>0.04437395818373262</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.5402755</v>
+        <v>0.790022</v>
       </c>
       <c r="H14">
-        <v>5.080551</v>
+        <v>2.370066</v>
       </c>
       <c r="I14">
-        <v>0.1154567969002575</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J14">
-        <v>0.08005204898729699</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,33 +1302,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1051366666666667</v>
+        <v>0.06577666666666666</v>
       </c>
       <c r="N14">
-        <v>0.31541</v>
+        <v>0.19733</v>
       </c>
       <c r="O14">
-        <v>0.05266403705467093</v>
+        <v>0.03064547051388741</v>
       </c>
       <c r="P14">
-        <v>0.06261614837928776</v>
+        <v>0.03737271676147313</v>
       </c>
       <c r="Q14">
-        <v>0.267076098485</v>
+        <v>0.05196501375333333</v>
       </c>
       <c r="R14">
-        <v>1.60245659091</v>
+        <v>0.46768512378</v>
       </c>
       <c r="S14">
-        <v>0.00608042103016878</v>
+        <v>0.001285154281362167</v>
       </c>
       <c r="T14">
-        <v>0.005012550977454602</v>
+        <v>0.00164647220627756</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.5402755</v>
+        <v>0.790022</v>
       </c>
       <c r="H15">
-        <v>5.080551</v>
+        <v>2.370066</v>
       </c>
       <c r="I15">
-        <v>0.1154567969002575</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J15">
-        <v>0.08005204898729699</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9215286666666668</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N15">
         <v>2.764586</v>
       </c>
       <c r="O15">
-        <v>0.4616031817153055</v>
+        <v>0.4293419082050673</v>
       </c>
       <c r="P15">
-        <v>0.5488339849189997</v>
+        <v>0.5235903792668827</v>
       </c>
       <c r="Q15">
-        <v>2.340936694481</v>
+        <v>0.7280279202973333</v>
       </c>
       <c r="R15">
-        <v>14.045620166886</v>
+        <v>6.552251282676</v>
       </c>
       <c r="S15">
-        <v>0.05329522479981671</v>
+        <v>0.01800496393905594</v>
       </c>
       <c r="T15">
-        <v>0.04393528504662918</v>
+        <v>0.02306701470057293</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.5402755</v>
+        <v>0.790022</v>
       </c>
       <c r="H16">
-        <v>5.080551</v>
+        <v>2.370066</v>
       </c>
       <c r="I16">
-        <v>0.1154567969002575</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J16">
-        <v>0.08005204898729699</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9518975000000001</v>
+        <v>1.1590695</v>
       </c>
       <c r="N16">
-        <v>1.903795</v>
+        <v>2.318139</v>
       </c>
       <c r="O16">
-        <v>0.4768152424994321</v>
+        <v>0.5400126212810453</v>
       </c>
       <c r="P16">
-        <v>0.3779471488023404</v>
+        <v>0.4390369039716442</v>
       </c>
       <c r="Q16">
-        <v>2.41808189776125</v>
+        <v>0.915690404529</v>
       </c>
       <c r="R16">
-        <v>9.672327591045001</v>
+        <v>5.494142427174</v>
       </c>
       <c r="S16">
-        <v>0.05505156061220399</v>
+        <v>0.02264607201623635</v>
       </c>
       <c r="T16">
-        <v>0.03025544367053418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.5402755</v>
-      </c>
-      <c r="H17">
-        <v>5.080551</v>
-      </c>
-      <c r="I17">
-        <v>0.1154567969002575</v>
-      </c>
-      <c r="J17">
-        <v>0.08005204898729699</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.01780266666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.053408</v>
-      </c>
-      <c r="O17">
-        <v>0.008917538730591501</v>
-      </c>
-      <c r="P17">
-        <v>0.01060271789937225</v>
-      </c>
-      <c r="Q17">
-        <v>0.045223677968</v>
-      </c>
-      <c r="R17">
-        <v>0.271342067808</v>
-      </c>
-      <c r="S17">
-        <v>0.001029590458068083</v>
-      </c>
-      <c r="T17">
-        <v>0.0008487692926790382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.315325</v>
-      </c>
-      <c r="H18">
-        <v>0.945975</v>
-      </c>
-      <c r="I18">
-        <v>0.01433167956883957</v>
-      </c>
-      <c r="J18">
-        <v>0.01490531972629706</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.1051366666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.31541</v>
-      </c>
-      <c r="O18">
-        <v>0.05266403705467093</v>
-      </c>
-      <c r="P18">
-        <v>0.06261614837928776</v>
-      </c>
-      <c r="Q18">
-        <v>0.03315221941666666</v>
-      </c>
-      <c r="R18">
-        <v>0.29836997475</v>
-      </c>
-      <c r="S18">
-        <v>0.0007547641038690373</v>
-      </c>
-      <c r="T18">
-        <v>0.0009333137116225419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.315325</v>
-      </c>
-      <c r="H19">
-        <v>0.945975</v>
-      </c>
-      <c r="I19">
-        <v>0.01433167956883957</v>
-      </c>
-      <c r="J19">
-        <v>0.01490531972629706</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.9215286666666668</v>
-      </c>
-      <c r="N19">
-        <v>2.764586</v>
-      </c>
-      <c r="O19">
-        <v>0.4616031817153055</v>
-      </c>
-      <c r="P19">
-        <v>0.5488339849189997</v>
-      </c>
-      <c r="Q19">
-        <v>0.2905810268166667</v>
-      </c>
-      <c r="R19">
-        <v>2.61522924135</v>
-      </c>
-      <c r="S19">
-        <v>0.006615548888300582</v>
-      </c>
-      <c r="T19">
-        <v>0.008180546021875392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.315325</v>
-      </c>
-      <c r="H20">
-        <v>0.945975</v>
-      </c>
-      <c r="I20">
-        <v>0.01433167956883957</v>
-      </c>
-      <c r="J20">
-        <v>0.01490531972629706</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.9518975000000001</v>
-      </c>
-      <c r="N20">
-        <v>1.903795</v>
-      </c>
-      <c r="O20">
-        <v>0.4768152424994321</v>
-      </c>
-      <c r="P20">
-        <v>0.3779471488023404</v>
-      </c>
-      <c r="Q20">
-        <v>0.3001570791875001</v>
-      </c>
-      <c r="R20">
-        <v>1.800942475125</v>
-      </c>
-      <c r="S20">
-        <v>0.006833563269040395</v>
-      </c>
-      <c r="T20">
-        <v>0.005633423092541256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.315325</v>
-      </c>
-      <c r="H21">
-        <v>0.945975</v>
-      </c>
-      <c r="I21">
-        <v>0.01433167956883957</v>
-      </c>
-      <c r="J21">
-        <v>0.01490531972629706</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.01780266666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.053408</v>
-      </c>
-      <c r="O21">
-        <v>0.008917538730591501</v>
-      </c>
-      <c r="P21">
-        <v>0.01060271789937225</v>
-      </c>
-      <c r="Q21">
-        <v>0.005613625866666668</v>
-      </c>
-      <c r="R21">
-        <v>0.0505226328</v>
-      </c>
-      <c r="S21">
-        <v>0.0001278033076295538</v>
-      </c>
-      <c r="T21">
-        <v>0.0001580369002578762</v>
+        <v>0.01934197250183985</v>
       </c>
     </row>
   </sheetData>
